--- a/Presentation G/191223/3조 발표 191223 자료현황_강영훈.xlsx
+++ b/Presentation G/191223/3조 발표 191223 자료현황_강영훈.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New-one\BM_YounghoonKANG_R\Presentation G\191223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A713AB48-8BEE-46D8-B997-DC59D7EF6A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4569A58-11A3-4EE1-A5CF-0D78E6D44FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="7935" xr2:uid="{A0EE09CF-CDF3-4E18-846D-B73C40C6A3DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>제주 중소기업체 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PDF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +176,149 @@
   </si>
   <si>
     <t>웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국고용정보원_17개 시도별 고용동향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.keis.or.kr/user/bbs/main/301/2116/bbsDataList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 3분기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191212125934_ 경제활동인구 _ 지역별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004~2018 월별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://statistics.keis.or.kr/user/extra/stats/statscharts2/statsmap2_2/jsp/Page.do?siteMenuIdx=2295&amp;gbnCd=B0104|B0109|B010&amp;rangeType=YYYYMM&amp;varTypeCd1=T0005&amp;intervalL=50&amp;intervalR=5&amp;yearSel=12&amp;removeVarCd1T=y|total|36110|00&amp;excelDown=&amp;orderBy=num&amp;mapGbn=B0109&amp;titleR=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://statistics.keis.or.kr/user/extra/stats/statscharts/statsSubMain/jsp/Page.do?siteMenuIdx=2265</t>
+  </si>
+  <si>
+    <t>전국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004~2019 월별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동시장 주요 통계: 취업자증감 및 고용률/실업자 및 실업률/인력부족현황/근로시간&amp;임금/적용사업장수 추이/피보험자수 증감/구인인원/구직건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주만 추출 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kosis.kr/statisticsList/statisticsListIndex.do?menuId=M_01_03_01&amp;vwcd=MT_GTITLE01&amp;parmTabId=M_01_03_01#SelectStatsBoxDiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 e-지방지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016~2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=INH_1B26001_A022&amp;conn_path=D9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=INH_1B26001_A021&amp;conn_path=D9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=INH_1B26001_A023&amp;conn_path=D9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 전입인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 순이동인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 전출인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총인구, 주민등록인구 등 기타 몇가지 더 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sgis.kostat.go.kr/view/house/houseAnalysisMap?type=full&amp;sido_cd=39&amp;sgg_cd=010&amp;zoom=-1&amp;coord_x=908058&amp;coord_y=1488189#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도내 지역별 순유입인구/청장년인구 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재만 되는듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kosis.kr/statisticsList/statisticsListIndex.do?menuId=M_01_01&amp;vwcd=MT_ZTITLE&amp;parmTabId=M_01_01&amp;statId=1976003&amp;themaId=A#SelectStatsBoxDiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 시군구/연령(5세별) 이동자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 유동인구 현황(도민)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/dataset/3084425/fileData.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +351,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,12 +392,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,275 +729,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAABF3B-0F88-4E2F-84CA-73CF52B0BA7C}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>2017</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2019</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{570578CC-3824-4A02-A7DE-B97E96CAEDA3}">
+    <sortState ref="A2:I17">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{A8EB3472-715D-48B0-AF69-9DC111F4B91C}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{70D30CFF-6CA8-46F9-9B75-C7B557F84B24}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{C0181E2E-56AB-4F62-8BAB-915CD3BF75FB}"/>
-    <hyperlink ref="E2" r:id="rId4" display="C:\Users\ICT01_14\Downloads\%E2%98%85%EC%A0%9C%EC%A3%BC%EC%9D%B8%EA%B5%AC%EB%B3%80%ED%99%94(%EC%B5%9C%EC%A2%85).pdf" xr:uid="{8C4EB7DB-6496-4B90-9248-2238D87F6C20}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{4E4C991E-590F-43F1-A5EC-9D27278C96D6}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{5122E729-D48E-4E27-B1A5-01FF3397128F}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{F6512D99-4E82-43E3-B592-5699461B2336}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{09BA126D-9DE9-43A0-A383-E2F1B4F685BB}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{A8EB3472-715D-48B0-AF69-9DC111F4B91C}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{70D30CFF-6CA8-46F9-9B75-C7B557F84B24}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{C0181E2E-56AB-4F62-8BAB-915CD3BF75FB}"/>
+    <hyperlink ref="E3" r:id="rId4" display="C:\Users\ICT01_14\Downloads\%E2%98%85%EC%A0%9C%EC%A3%BC%EC%9D%B8%EA%B5%AC%EB%B3%80%ED%99%94(%EC%B5%9C%EC%A2%85).pdf" xr:uid="{8C4EB7DB-6496-4B90-9248-2238D87F6C20}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{4E4C991E-590F-43F1-A5EC-9D27278C96D6}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{5122E729-D48E-4E27-B1A5-01FF3397128F}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{F6512D99-4E82-43E3-B592-5699461B2336}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{09BA126D-9DE9-43A0-A383-E2F1B4F685BB}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{2C987A45-0A2B-45AB-8588-EFF20E70624B}"/>
+    <hyperlink ref="E16" r:id="rId10" display="http://statistics.keis.or.kr/user/extra/stats/statscharts2/statsmap2_2/jsp/Page.do?siteMenuIdx=2295&amp;gbnCd=B0104|B0109|B010&amp;rangeType=YYYYMM&amp;varTypeCd1=T0005&amp;intervalL=50&amp;intervalR=5&amp;yearSel=12&amp;removeVarCd1T=y|total|36110|00&amp;excelDown=&amp;orderBy=num&amp;mapGbn=B0109&amp;titleR=1" xr:uid="{A2E3F7C3-34FE-42B1-975E-7E8D99DC750C}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{DAE1EA08-8480-4F97-B1D1-1012998D97BA}"/>
+    <hyperlink ref="E6" r:id="rId12" location="SelectStatsBoxDiv" xr:uid="{D40A30E5-E996-4362-9D90-F8FF39E42C34}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{97DFF450-8EF3-4A38-BBB2-5253ED773579}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{29F567A3-83C9-42F2-B0A7-8F1CDC6295EC}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{80982F90-A7EE-4FAC-A670-E3A9D511610A}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{9FFF5EAA-38DB-4855-871E-CA7EE63CDFD7}"/>
+    <hyperlink ref="E19" r:id="rId17" location="SelectStatsBoxDiv" xr:uid="{31A75685-AE02-46CF-AE1F-E7047B0688B1}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{CA4A6AA7-C6CE-4923-9A99-2A044857D799}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Presentation G/191223/3조 발표 191223 자료현황_강영훈.xlsx
+++ b/Presentation G/191223/3조 발표 191223 자료현황_강영훈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New-one\BM_YounghoonKANG_R\Presentation G\191223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4569A58-11A3-4EE1-A5CF-0D78E6D44FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D2329-341E-401F-AB1B-68FF3756F630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="7935" xr2:uid="{A0EE09CF-CDF3-4E18-846D-B73C40C6A3DE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>제주 중소기업체 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,9 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file:///C:/Users/ICT01_14/Downloads/%E2%98%85%EC%A0%9C%EC%A3%BC%EC%9D%B8%EA%B5%AC%EB%B3%80%ED%99%94(%EC%B5%9C%EC%A2%85).pdf</t>
-  </si>
-  <si>
     <t>제주 인구를 도민 전문가와 함께 관찰했습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +168,6 @@
     <t>http://www.korcham.net/nCham/Service/Economy/appl/AreaReportDetail.asp?CONT_ID=42529&amp;BOARD_ID=10091&amp;SITE_ID=58</t>
   </si>
   <si>
-    <t>통계(수치) 포함 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +312,105 @@
   </si>
   <si>
     <t>https://www.data.go.kr/dataset/3084425/fileData.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jejuilbo.net/news/articleView.html?idxno=73389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"인구 문제 방치하면 제주 미래는 없다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~30대 젊은 층이 늘어 제주도의 나이는 젊어지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계(수치) 
+포함 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"제주 인구 지난해 69만2천명…70만 눈앞인데 성장동력 잃나?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/view/2019/01/15248/</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"제주 인구 증가폭 크게 둔화"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jejunews.com/news/articleView.html?idxno=2141956</t>
+  </si>
+  <si>
+    <t>원도심을 중심으로 도시재생 사업이 추진 중이나, 원도심 인구 이탈 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한은은 "관광, 건설 등 주력산업 부진으로 인해 인구 유입 위축 현상은 당분간 이어질 것"이라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도 발전계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.prism.go.kr/homepage/entire/retrieveEntireDetail.do?pageIndex=1&amp;research_id=6500000-201900036&amp;leftMenuLevel=160&amp;cond_research_name=%EC%A0%9C%EC%A3%BC&amp;cond_research_start_date=&amp;cond_research_end_date=&amp;pageUnit=10&amp;cond_order=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주청년 자율실태조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 청년층의 생활방식, 삶의질, 고민 등을 설문하여 분석한 청년정책 방안에 대한 자료. 제주 청년정책 중 가장 주력해야할 정책으로 1위에 취/창업 환경 개선이 꼽힘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.prism.go.kr/homepage/entire/retrieveEntireDetail.do?pageIndex=1&amp;research_id=6500000-201900001&amp;leftMenuLevel=160&amp;cond_research_name=%EC%A0%9C%EC%A3%BC&amp;cond_research_start_date=&amp;cond_research_end_date=&amp;pageUnit=10&amp;cond_order=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jeju.go.kr/news/online/ebook.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온나라정책연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업/창업에 관한 발전 계획 정보가 많으나 읽을 양이 너무 많다(459p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도 2030년 인구변화 예측 및 대응방안 연구용역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업/창업에 관한 내용은 전혀 없이 제주 인구 변화에만 집중한 자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,13 +498,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,49 +824,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAABF3B-0F88-4E2F-84CA-73CF52B0BA7C}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.75" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
+      <c r="H1" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -782,18 +877,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -802,25 +897,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -828,22 +923,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -851,135 +946,135 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6">
         <v>2017</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>65</v>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -987,22 +1082,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1010,22 +1105,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1033,22 +1128,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2017</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1056,22 +1151,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1079,25 +1174,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2019</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1105,25 +1200,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1131,28 +1226,28 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -1160,28 +1255,28 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
         <v>49</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1189,25 +1284,25 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1215,22 +1310,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1238,49 +1336,227 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2018</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>40</v>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2018.12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2018.12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{570578CC-3824-4A02-A7DE-B97E96CAEDA3}">
-    <sortState ref="A2:I17">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I1" xr:uid="{570578CC-3824-4A02-A7DE-B97E96CAEDA3}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{A8EB3472-715D-48B0-AF69-9DC111F4B91C}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{70D30CFF-6CA8-46F9-9B75-C7B557F84B24}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{C0181E2E-56AB-4F62-8BAB-915CD3BF75FB}"/>
-    <hyperlink ref="E3" r:id="rId4" display="C:\Users\ICT01_14\Downloads\%E2%98%85%EC%A0%9C%EC%A3%BC%EC%9D%B8%EA%B5%AC%EB%B3%80%ED%99%94(%EC%B5%9C%EC%A2%85).pdf" xr:uid="{8C4EB7DB-6496-4B90-9248-2238D87F6C20}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{4E4C991E-590F-43F1-A5EC-9D27278C96D6}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{5122E729-D48E-4E27-B1A5-01FF3397128F}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{F6512D99-4E82-43E3-B592-5699461B2336}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{09BA126D-9DE9-43A0-A383-E2F1B4F685BB}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{2C987A45-0A2B-45AB-8588-EFF20E70624B}"/>
-    <hyperlink ref="E16" r:id="rId10" display="http://statistics.keis.or.kr/user/extra/stats/statscharts2/statsmap2_2/jsp/Page.do?siteMenuIdx=2295&amp;gbnCd=B0104|B0109|B010&amp;rangeType=YYYYMM&amp;varTypeCd1=T0005&amp;intervalL=50&amp;intervalR=5&amp;yearSel=12&amp;removeVarCd1T=y|total|36110|00&amp;excelDown=&amp;orderBy=num&amp;mapGbn=B0109&amp;titleR=1" xr:uid="{A2E3F7C3-34FE-42B1-975E-7E8D99DC750C}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{DAE1EA08-8480-4F97-B1D1-1012998D97BA}"/>
-    <hyperlink ref="E6" r:id="rId12" location="SelectStatsBoxDiv" xr:uid="{D40A30E5-E996-4362-9D90-F8FF39E42C34}"/>
-    <hyperlink ref="E7" r:id="rId13" xr:uid="{97DFF450-8EF3-4A38-BBB2-5253ED773579}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{29F567A3-83C9-42F2-B0A7-8F1CDC6295EC}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{80982F90-A7EE-4FAC-A670-E3A9D511610A}"/>
-    <hyperlink ref="E18" r:id="rId16" xr:uid="{9FFF5EAA-38DB-4855-871E-CA7EE63CDFD7}"/>
-    <hyperlink ref="E19" r:id="rId17" location="SelectStatsBoxDiv" xr:uid="{31A75685-AE02-46CF-AE1F-E7047B0688B1}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{CA4A6AA7-C6CE-4923-9A99-2A044857D799}"/>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{A8EB3472-715D-48B0-AF69-9DC111F4B91C}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{70D30CFF-6CA8-46F9-9B75-C7B557F84B24}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{C0181E2E-56AB-4F62-8BAB-915CD3BF75FB}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{4E4C991E-590F-43F1-A5EC-9D27278C96D6}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{5122E729-D48E-4E27-B1A5-01FF3397128F}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{F6512D99-4E82-43E3-B592-5699461B2336}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{09BA126D-9DE9-43A0-A383-E2F1B4F685BB}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{2C987A45-0A2B-45AB-8588-EFF20E70624B}"/>
+    <hyperlink ref="G16" r:id="rId9" display="http://statistics.keis.or.kr/user/extra/stats/statscharts2/statsmap2_2/jsp/Page.do?siteMenuIdx=2295&amp;gbnCd=B0104|B0109|B010&amp;rangeType=YYYYMM&amp;varTypeCd1=T0005&amp;intervalL=50&amp;intervalR=5&amp;yearSel=12&amp;removeVarCd1T=y|total|36110|00&amp;excelDown=&amp;orderBy=num&amp;mapGbn=B0109&amp;titleR=1" xr:uid="{A2E3F7C3-34FE-42B1-975E-7E8D99DC750C}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{DAE1EA08-8480-4F97-B1D1-1012998D97BA}"/>
+    <hyperlink ref="G6" r:id="rId11" location="SelectStatsBoxDiv" xr:uid="{D40A30E5-E996-4362-9D90-F8FF39E42C34}"/>
+    <hyperlink ref="G7" r:id="rId12" xr:uid="{97DFF450-8EF3-4A38-BBB2-5253ED773579}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{29F567A3-83C9-42F2-B0A7-8F1CDC6295EC}"/>
+    <hyperlink ref="G9" r:id="rId14" xr:uid="{80982F90-A7EE-4FAC-A670-E3A9D511610A}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{9FFF5EAA-38DB-4855-871E-CA7EE63CDFD7}"/>
+    <hyperlink ref="G19" r:id="rId16" location="SelectStatsBoxDiv" xr:uid="{31A75685-AE02-46CF-AE1F-E7047B0688B1}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{CA4A6AA7-C6CE-4923-9A99-2A044857D799}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{8A377F00-027A-4D44-9E9D-FE4F3D7AE87C}"/>
+    <hyperlink ref="G22" r:id="rId19" xr:uid="{66813AC7-5440-4CF8-8C85-4B5990C43E50}"/>
+    <hyperlink ref="G23" r:id="rId20" xr:uid="{86C8FD12-E26F-4E33-86C8-9E877F0E0F5B}"/>
+    <hyperlink ref="G25" r:id="rId21" xr:uid="{BA5C7996-2F32-4B0A-A8C6-B7636AD0AD5B}"/>
+    <hyperlink ref="G26" r:id="rId22" xr:uid="{48BED0E4-660F-45E1-8659-C6CA7EF5366F}"/>
+    <hyperlink ref="G3" r:id="rId23" xr:uid="{33EF9274-DE11-4F2E-9394-F84A79F25F48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Presentation G/191223/3조 발표 191223 자료현황_강영훈.xlsx
+++ b/Presentation G/191223/3조 발표 191223 자료현황_강영훈.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New-one\BM_YounghoonKANG_R\Presentation G\191223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D2329-341E-401F-AB1B-68FF3756F630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A6FB3-AEC8-480D-8281-F1411BC27CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="7935" xr2:uid="{A0EE09CF-CDF3-4E18-846D-B73C40C6A3DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="자료정리" sheetId="1" r:id="rId1"/>
+    <sheet name="취업창업지원정보" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">자료정리!$A$1:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
   <si>
     <t>제주 중소기업체 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +412,71 @@
   </si>
   <si>
     <t>취업/창업에 관한 내용은 전혀 없이 제주 인구 변화에만 집중한 자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jeju.go.kr/industry/businesssupport/venture/plan/Startups.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 중소기업 창업 프로젝트 지원사업
+2-2. 제주형 프랜차이즈 창업 및 경쟁력 강화 지원
+2-3. 창업보육센터(BI) 입주기업 역량강화 지원
+2-4. 향토자원 활용형 창업지원
+2-5. 아이디어 창업 활성화 지원
+2-6. 창업기업 성장 맞춤형 지원 사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 창업 두드림(Do Dream) 특별보증 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jeju.go.kr/jeju/life/support/support.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀농 농업창업 및 주택구입 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDC, 취업·창업 복합 지원 공간(J-CUBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년구직활동비(청년자기계발비, 청년구직활동지원금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jeju.go.kr/jejuyouth/info.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 함께하는 일자리 지원정책 및 지원서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jba.or.kr/171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주청년도외직업훈련 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 더 큰 내일센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jba.or.kr/174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jeju.go.kr/group/part9/refer.htm;jsessionid=EZrgsvecjspqN0JlbsqGTjAa93oNk9oMxa3T1LrJerSunMYLykoXhxADfw0FLRED.was1_servlet_engine1?page=36&amp;act=view&amp;seq=1103734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jeju.go.kr/industry/businesssupport/venture/plan/Funds.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +892,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAABF3B-0F88-4E2F-84CA-73CF52B0BA7C}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -836,7 +904,7 @@
     <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.75" customWidth="1"/>
+    <col min="5" max="5" width="54.375" customWidth="1"/>
     <col min="6" max="6" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
@@ -1529,7 +1597,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{570578CC-3824-4A02-A7DE-B97E96CAEDA3}"/>
+  <autoFilter ref="A1:I26" xr:uid="{570578CC-3824-4A02-A7DE-B97E96CAEDA3}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1" xr:uid="{A8EB3472-715D-48B0-AF69-9DC111F4B91C}"/>
@@ -1559,4 +1627,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F89C0F-0DFE-41D2-8D91-DFA19C8476BA}">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="70.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="99" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BA0D7286-76DE-45B2-B831-1B4772C21D77}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EB7AE5B3-E462-43E8-B6FB-07D8208BCD74}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{72CACDFB-F77D-4206-8E47-29081BE2F212}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{25507CE1-8CED-474A-938F-EBD1AEBBA54E}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{FEFA4484-77E2-499F-A444-CA4B18DD6343}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{0D55096D-661A-42D6-8A91-71A28B42B388}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{289E4203-B4F6-4274-92CD-392D9176C707}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+</worksheet>
 </file>